--- a/data/data_from_M/formatted-table/SV 538 Union Avenue.xlsx
+++ b/data/data_from_M/formatted-table/SV 538 Union Avenue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlittle\Documents\Soil Vapor for students\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindseycovell/Desktop/Spring 2023/Capstone/ehs_capstone_nycdoh/data/data_from_M/formatted-table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E1F041-DA87-44B7-83E2-C6D7714A2C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73A1E51-74E9-A348-AEA9-42B4E0F9D4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1455" windowWidth="25410" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25740" yWindow="460" windowWidth="17100" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="83">
   <si>
     <r>
       <rPr>
@@ -136,194 +136,21 @@
   <si>
     <r>
       <rPr>
-        <b/>
+        <i/>
         <sz val="5.5"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Volatile Organic Compounds via EPA Method TO-15
+      <t xml:space="preserve">Notes:
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="5.5"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Units
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Acetone
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1,3-Butadiene Benzene Bromodichloromethane Bromoform Bromomethane Bromoethene
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Benzyl Chloride Carbon disulfide Chlorobenzene Chloroethane Chloroform Chloromethane 3-Chloropropene 2-Chlorotoluene
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Carbon tetrachloride Cyclohexane
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1,1-Dichloroethane 1,1-Dichloroethylene 1,2-Dibromoethane 1,2-Dichloroethane 1,2-Dichloropropane 1,4-Dioxane
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Dichlorodifluoromethane Dibromochloromethane trans-1,2-Dichloroethylene cis-1,2-Dichloroethylene cis-1,3-Dichloropropene
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">m-Dichlorobenzene o-Dichlorobenzene p-Dichlorobenzene
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">trans-1,3-Dichloropropene Ethanol
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Ethylbenzene Ethyl Acetate 4-Ethyltoluene Freon 113
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Freon 114 Heptane
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Hexachlorobutadiene Hexane
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2-Hexanone Isopropyl Alcohol Methylene chloride Methyl ethyl ketone
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Methyl Isobutyl Ketone Methyl Tert Butyl Ether Methylmethacrylate Propylene
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Styrene
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1,1,1-Trichloroethane 1,1,2,2-Tetrachloroethane 1,1,2-Trichloroethane 1,2,4-Trichlorobenzene 1,2,4-Trimethylbenzene 1,3,5-Trimethylbenzene 2,2,4-Trimethylpentane Tertiary Butyl Alcohol Tetrachloroethylene Tetrahydrofuran
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Toluene Trichloroethylene Trichlorofluoromethane Vinyl chloride
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Vinyl Acetate m,p-Xylene o-Xylene
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Xylenes (total)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ug/m</t>
+      <t>All concentrations are shown in ug/m</t>
     </r>
     <r>
       <rPr>
@@ -340,7 +167,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 1,120 a ND
+      <t xml:space="preserve">-micrograms per cubic meter All samples collected over 2 hour period
 </t>
     </r>
     <r>
@@ -349,7 +176,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ND ND ND ND ND ND ND ND ND 4.4 ND ND ND ND ND 8.9 ND ND ND ND ND 3.2 ND ND ND ND ND ND ND ND 73.5
+      <t xml:space="preserve">J - Indicates an etimated value a - Results is from Run #2
 </t>
     </r>
     <r>
@@ -358,466 +185,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">6.1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ND 6.4 ND ND 17 ND ND 162
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">93.4
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ND 398 a ND ND ND 170 ND 230 ND ND ND 44
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">12
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ND 34.0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">31
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ND 9.4
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">72.6
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">7.3
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ND ND 27
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">14
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>40</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ug/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1,300 a ND
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.5
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ND ND ND ND ND ND ND ND 3.3 ND ND ND ND ND 5.7 ND ND ND ND ND 3.3 ND ND ND ND ND ND ND ND 88.4
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">8.7
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ND 7.4 ND ND 17 ND 10
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">148
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">127
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ND 363 a ND ND ND 204 ND 35 ND ND ND 45
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">13
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ND 41.2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">25
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ND 15
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">7.0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ND ND ND 36
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">17
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>53.4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ug/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1,850 a ND
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ND ND ND ND ND ND ND ND ND ND ND ND ND ND ND ND ND ND ND ND ND 3.9 ND ND ND ND ND ND ND ND 120
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">5.6
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ND 5.9 ND ND 20 ND ND 202
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">158
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ND 575 a ND ND ND 234 a ND 111 ND ND ND 39
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">11
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ND 55.8 ND ND 8.3
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1.5
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">5.2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ND ND 24
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">13
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>37</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Notes:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>All concentrations are shown in ug/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-micrograms per cubic meter All samples collected over 2 hour period
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">J - Indicates an etimated value a - Results is from Run #2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>ND - Not detected at or above reporting limits</t>
     </r>
   </si>
@@ -904,7 +271,17 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">American Analytical Laboratories, LLC. received 13 sample(s) on 4/26/2012 for the analyses presented in the following repmi.
-</t>
+Samples were analyzed in accordance with the test procedures documented on the chain of custody and detailed throughout the text of this report.
+The results reported herein relate only to the items tested or to the samples as received by the laboratory. This report may not be reproduced, except in full, without the approval of American Analytical Laboratories, LLC and is not considered complete without a cover page and chain of custody documentation.  The limits (LOQ) provided in the data package are analytical reporting limits and not Federal or Local mandated values to which the sample results should be compared.
+There were no problems with the analyses and all data for associated QC met laboratory specifications. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">If </t>
     </r>
     <r>
       <rPr>
@@ -912,50 +289,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Samples were analyzed in accordance with the test procedures documented on the chain of custody and detailed throughout the text of this report.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">The results reported herein relate only to the items tested or to the samples as received by the laboratory. This report may not be reproduced, except in full, without the approval of American Analytical Laboratories, LLC and is not considered complete without a cover page and chain of custody documentation.  The limits (LOQ) provided in the data package are analytical reporting limits and not Federal or Local mandated values to which the sample results should be compared.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">There were no problems with the analyses and all data for associated QC met laboratory specifications. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">If </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t xml:space="preserve">there are any exceptions a Case Narrative is provided in the report or the data is qualified. This package has been reviewed by American Analytical Laboratories' QA
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Department/Laboratory I?ire9tor to comply with NELAC standards prior to report submittal. This report consists of   </t>
+Department/Laboratory I?ire9tor to comply with NELAC standards prior to report submittal. This report consists of   </t>
     </r>
     <r>
       <rPr>
@@ -1057,12 +392,379 @@
       <t>56 TOLEDO STREET  "  FARMINGDALE,  NEW YORK 11735 (631) 454-6l 00  •  FAX: (63 l)  454-8027</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="5.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Volatile Organic Compounds via EPA Method TO-15
+Units
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Acetone
+1,3-Butadiene Benzene Bromodichloromethane Bromoform Bromomethane Bromoethene
+Benzyl Chloride Carbon disulfide Chlorobenzene Chloroethane Chloroform Chloromethane 3-Chloropropene 2-Chlorotoluene
+Carbon tetrachloride Cyclohexane
+1,1-Dichloroethane 1,1-Dichloroethylene 1,2-Dibromoethane 1,2-Dichloroethane 1,2-Dichloropropane 1,4-Dioxane
+Dichlorodifluoromethane Dibromochloromethane trans-1,2-Dichloroethylene cis-1,2-Dichloroethylene cis-1,3-Dichloropropene
+m-Dichlorobenzene o-Dichlorobenzene p-Dichlorobenzene
+trans-1,3-Dichloropropene Ethanol
+Ethylbenzene Ethyl Acetate 4-Ethyltoluene Freon 113
+Freon 114 Heptane
+Hexachlorobutadiene Hexane
+2-Hexanone Isopropyl Alcohol Methylene chloride Methyl ethyl ketone
+Methyl Isobutyl Ketone Methyl Tert Butyl Ether Methylmethacrylate Propylene
+Styrene
+1,1,1-Trichloroethane 1,1,2,2-Tetrachloroethane 1,1,2-Trichloroethane 1,2,4-Trichlorobenzene 1,2,4-Trimethylbenzene 1,3,5-Trimethylbenzene 2,2,4-Trimethylpentane Tertiary Butyl Alcohol Tetrachloroethylene Tetrahydrofuran
+Toluene Trichloroethylene Trichlorofluoromethane Vinyl chloride
+Vinyl Acetate m,p-Xylene o-Xylene
+Xylenes (total)</t>
+    </r>
+  </si>
+  <si>
+    <t>Acetone</t>
+  </si>
+  <si>
+    <t>1,3-Butadiene</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>Bromodichloromethane</t>
+  </si>
+  <si>
+    <t>Bromoform</t>
+  </si>
+  <si>
+    <t>Bromomethane</t>
+  </si>
+  <si>
+    <t>Bromoethene</t>
+  </si>
+  <si>
+    <t>Benzyl Chloride</t>
+  </si>
+  <si>
+    <t>Carbon disulfide</t>
+  </si>
+  <si>
+    <t>Chlorobenzene</t>
+  </si>
+  <si>
+    <t>Chloroethane</t>
+  </si>
+  <si>
+    <t>Chloroform</t>
+  </si>
+  <si>
+    <t>Chloromethane</t>
+  </si>
+  <si>
+    <t>3-Chloropropene</t>
+  </si>
+  <si>
+    <t>2-Chlorotoluene</t>
+  </si>
+  <si>
+    <t>Carbon tetrachloride</t>
+  </si>
+  <si>
+    <t>Cyclohexane</t>
+  </si>
+  <si>
+    <t>1,1-Dichloroethane</t>
+  </si>
+  <si>
+    <t>1,1-Dichloroethylene</t>
+  </si>
+  <si>
+    <t>1,2-Dibromoethane</t>
+  </si>
+  <si>
+    <t>1,2-Dichloroethane</t>
+  </si>
+  <si>
+    <t>1,2-Dichloropropane</t>
+  </si>
+  <si>
+    <t>1,4-Dioxane</t>
+  </si>
+  <si>
+    <t>Dichlorodifluoromethane</t>
+  </si>
+  <si>
+    <t>Dibromochloromethane</t>
+  </si>
+  <si>
+    <t>trans-1,2-Dichloroethylene</t>
+  </si>
+  <si>
+    <t>cis-1,2-Dichloroethylene</t>
+  </si>
+  <si>
+    <t>cis-1,3-Dichloropropene</t>
+  </si>
+  <si>
+    <t>m-Dichlorobenzene</t>
+  </si>
+  <si>
+    <t>o-Dichlorobenzene</t>
+  </si>
+  <si>
+    <t>p-Dichlorobenzene</t>
+  </si>
+  <si>
+    <t>trans-1,3-Dichloropropene</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>Ethylbenzene</t>
+  </si>
+  <si>
+    <t>Ethyl Acetate</t>
+  </si>
+  <si>
+    <t>4-Ethyltoluene</t>
+  </si>
+  <si>
+    <t>Freon 113</t>
+  </si>
+  <si>
+    <t>Freon 114</t>
+  </si>
+  <si>
+    <t>Heptane</t>
+  </si>
+  <si>
+    <t>Hexachlorobutadiene</t>
+  </si>
+  <si>
+    <t>Hexane</t>
+  </si>
+  <si>
+    <t>2-Hexanone</t>
+  </si>
+  <si>
+    <t>Isopropyl Alcohol</t>
+  </si>
+  <si>
+    <t>Methylene chloride</t>
+  </si>
+  <si>
+    <t>Methyl ethyl ketone</t>
+  </si>
+  <si>
+    <t>Methyl Isobutyl Ketone</t>
+  </si>
+  <si>
+    <t>Methyl Tert Butyl Ether</t>
+  </si>
+  <si>
+    <t>Methylmethacrylate</t>
+  </si>
+  <si>
+    <t>Propylene</t>
+  </si>
+  <si>
+    <t>Styrene</t>
+  </si>
+  <si>
+    <t>1,1,1-Trichloroethane</t>
+  </si>
+  <si>
+    <t>1,1,2,2-Tetrachloroethane</t>
+  </si>
+  <si>
+    <t>1,1,2-Trichloroethane</t>
+  </si>
+  <si>
+    <t>1,2,4-Trichlorobenzene</t>
+  </si>
+  <si>
+    <t>1,2,4-Trimethylbenzene</t>
+  </si>
+  <si>
+    <t>1,3,5-Trimethylbenzene</t>
+  </si>
+  <si>
+    <t>2,2,4-Trimethylpentane</t>
+  </si>
+  <si>
+    <t>Tertiary Butyl Alcohol</t>
+  </si>
+  <si>
+    <t>Tetrachloroethylene</t>
+  </si>
+  <si>
+    <t>Tetrahydrofuran</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>Trichloroethylene</t>
+  </si>
+  <si>
+    <t>Trichlorofluoromethane</t>
+  </si>
+  <si>
+    <t>Vinyl chloride</t>
+  </si>
+  <si>
+    <t>Vinyl Acetate</t>
+  </si>
+  <si>
+    <t>m,p-Xylene</t>
+  </si>
+  <si>
+    <t>o-Xylene</t>
+  </si>
+  <si>
+    <t>Xylenes (total)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ug/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="5.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1,120 a ND
+ND ND ND ND ND ND ND ND ND 4.4 ND ND ND ND ND 8.9 ND ND ND ND ND 3.2 ND ND ND ND ND ND ND ND 73.5
+6.1
+ND 6.4 ND ND 17 ND ND 162
+93.4
+ND 398 a ND ND ND 170 ND 230 ND ND ND 44
+12
+ND 34.0
+31
+ND 9.4
+72.6
+7.3
+ND ND 27
+14
+40</t>
+    </r>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ug/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="5.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1,300 a ND
+1.5
+ND ND ND ND ND ND ND ND 3.3 ND ND ND ND ND 5.7 ND ND ND ND ND 3.3 ND ND ND ND ND ND ND ND 88.4
+8.7
+ND 7.4 ND ND 17 ND 10
+148
+127
+ND 363 a ND ND ND 204 ND 35 ND ND ND 45
+13
+ND 41.2
+25
+ND 15
+7.0
+ND ND ND 36
+17
+53.4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ug/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="5.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1,850 a ND
+ND ND ND ND ND ND ND ND ND ND ND ND ND ND ND ND ND ND ND ND ND 3.9 ND ND ND ND ND ND ND ND 120
+5.6
+ND 5.9 ND ND 20 ND ND 202
+158
+ND 575 a ND ND ND 234 a ND 111 ND ND ND 39
+11
+ND 55.8 ND ND 8.3
+1.5
+5.2
+ND ND 24
+13
+37</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1149,6 +851,18 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1294,7 +1008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1303,39 +1017,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1354,6 +1035,48 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="14"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1587,11 +1310,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>117929</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>100227</xdr:rowOff>
+      <xdr:rowOff>118370</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6863715" cy="760730"/>
+    <xdr:ext cx="7952254" cy="760142"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="5" name="Group 5">
@@ -1605,10 +1328,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="8663202"/>
-          <a:ext cx="6863715" cy="760730"/>
+          <a:off x="117929" y="8690870"/>
+          <a:ext cx="7952254" cy="760142"/>
           <a:chOff x="0" y="0"/>
-          <a:chExt cx="6863715" cy="760730"/>
+          <a:chExt cx="7952254" cy="760142"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -1659,7 +1382,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="707993" y="683823"/>
+            <a:off x="1796564" y="203037"/>
             <a:ext cx="6155690" cy="0"/>
           </a:xfrm>
           <a:custGeom>
@@ -2290,38 +2013,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="2.1640625" customWidth="1"/>
-    <col min="4" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.3984375" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="5" width="18.59765625" customWidth="1"/>
+    <col min="6" max="6" width="40.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2329,90 +2052,1042 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="408.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" ht="409" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="45.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="12" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="409" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="85.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="21">
+        <v>1120</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1300</v>
+      </c>
+      <c r="D13" s="21">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A18" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A24" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C24" s="19">
+        <v>3.3</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A26" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A27" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A28" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A29" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A30" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="19">
+        <v>8.9</v>
+      </c>
+      <c r="C30" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A31" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A33" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A34" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A35" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A36" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="19">
+        <v>3.2</v>
+      </c>
+      <c r="C36" s="19">
+        <v>3.3</v>
+      </c>
+      <c r="D36" s="19">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A37" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A38" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A39" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A40" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A41" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A42" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A43" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A44" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A45" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="19">
+        <v>73.5</v>
+      </c>
+      <c r="C45" s="19">
+        <v>88.4</v>
+      </c>
+      <c r="D45" s="19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A46" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="C46" s="19">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D46" s="19">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A47" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A48" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="C48" s="19">
+        <v>7.4</v>
+      </c>
+      <c r="D48" s="19">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A49" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A50" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A51" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="19">
+        <v>17</v>
+      </c>
+      <c r="C51" s="19">
+        <v>17</v>
+      </c>
+      <c r="D51" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A52" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A53" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="19">
         <v>10</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="D53" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A54" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="19">
+        <v>162</v>
+      </c>
+      <c r="C54" s="19">
+        <v>148</v>
+      </c>
+      <c r="D54" s="19">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A55" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="19">
+        <v>93.4</v>
+      </c>
+      <c r="C55" s="19">
+        <v>127</v>
+      </c>
+      <c r="D55" s="19">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A56" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A57" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="19">
+        <v>398</v>
+      </c>
+      <c r="C57" s="19">
+        <v>363</v>
+      </c>
+      <c r="D57" s="19">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A58" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A59" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A60" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A61" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="19">
+        <v>170</v>
+      </c>
+      <c r="C61" s="19">
+        <v>204</v>
+      </c>
+      <c r="D61" s="19">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A62" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A63" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="19">
+        <v>230</v>
+      </c>
+      <c r="C63" s="19">
+        <v>35</v>
+      </c>
+      <c r="D63" s="19">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A64" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A65" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A66" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A67" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="19">
+        <v>44</v>
+      </c>
+      <c r="C67" s="19">
+        <v>45</v>
+      </c>
+      <c r="D67" s="19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A68" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="19">
+        <v>12</v>
+      </c>
+      <c r="C68" s="19">
+        <v>13</v>
+      </c>
+      <c r="D68" s="19">
         <v>11</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" ht="408.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+    </row>
+    <row r="69" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A69" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A70" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="19">
+        <v>34</v>
+      </c>
+      <c r="C70" s="19">
+        <v>41.2</v>
+      </c>
+      <c r="D70" s="19">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A71" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="19">
+        <v>31</v>
+      </c>
+      <c r="C71" s="19">
+        <v>25</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A72" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A73" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="19">
+        <v>9.4</v>
+      </c>
+      <c r="C73" s="19">
+        <v>15</v>
+      </c>
+      <c r="D73" s="19">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A74" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="19">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="C74" s="19">
+        <v>7</v>
+      </c>
+      <c r="D74" s="19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A75" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="19">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A76" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A77" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A78" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="19">
+        <v>27</v>
+      </c>
+      <c r="C78" s="19">
+        <v>36</v>
+      </c>
+      <c r="D78" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A79" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="19">
+        <v>14</v>
+      </c>
+      <c r="C79" s="19">
+        <v>17</v>
+      </c>
+      <c r="D79" s="19">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" ht="85.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+    </row>
+    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A80" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="19">
+        <v>40</v>
+      </c>
+      <c r="C80" s="19">
+        <v>53.4</v>
+      </c>
+      <c r="D80" s="19">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A8:F9"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A8:F9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1" display="mailto:lbeyer@american-analytical.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
